--- a/data/05_input/os.mo20a.xlsx
+++ b/data/05_input/os.mo20a.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/98B8C77B-C484-42C7-B7A4-4928C740706C/192.168.10.18/disk6/pzhou/projects/barn/Osativa/05_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/C4423A1E-E793-4D5E-AE56-BF1339349976/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8328A2ED-8FDE-5944-A087-9E50C7FA54FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD0684B-B37A-2B43-AD7A-DB9E53659A0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="7600" windowWidth="16180" windowHeight="13400" xr2:uid="{16E30308-8AB0-334E-A672-C293F5FA03D6}"/>
   </bookViews>
@@ -131,79 +131,79 @@
     <t>SampleID</t>
   </si>
   <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M14_6_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M14_6_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M16_7_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M16_7_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M17_8_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M17_8_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M18_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M18_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M21_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M21_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M25_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M25_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M29_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M29_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M30_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M30_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M32_1_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M32_1_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M34_1_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M34_1_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M37_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M37_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M39_2_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/Resequencing/M39_2_2.fq.gz</t>
-  </si>
-  <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>M14_6_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M14_6_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M16_7_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M16_7_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M17_8_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M17_8_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M18_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M18_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M21_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M21_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M25_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M25_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M29_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M29_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M30_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M30_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M32_1_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M32_1_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M34_1_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M34_1_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M37_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M37_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M39_2_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M39_2_2.fq.gz</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C283A2CE-8588-7C43-8745-FB85E4B41274}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -578,7 +580,7 @@
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>26</v>
@@ -604,10 +606,10 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -624,10 +626,10 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -644,10 +646,10 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -664,10 +666,10 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -684,10 +686,10 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -704,10 +706,10 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -724,10 +726,10 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -744,10 +746,10 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -764,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -784,10 +786,10 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -804,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -824,13 +826,14 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>